--- a/main/cmy2xyz/results/nn_RandomForestRegressor_results.xlsx
+++ b/main/cmy2xyz/results/nn_RandomForestRegressor_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,6 +535,22 @@
         <v>5.245953022954223</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>{'model': &lt;class 'sklearn.ensemble._forest.RandomForestRegressor'&gt;, 'n_estimators': 100, 'max_depth': 10, 'random_state': 42}</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1.460965939045118</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.053186516938557</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.258858495214626</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
